--- a/goldendata/Assignment2Part1RDO/Summary/Part1_RDO_Enable_Testdata.xlsx
+++ b/goldendata/Assignment2Part1RDO/Summary/Part1_RDO_Enable_Testdata.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Block 8" sheetId="2" r:id="rId2"/>
-    <sheet name="Block 16" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Block 8" sheetId="2" r:id="rId3"/>
+    <sheet name="Block 16" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="31">
   <si>
     <t>Block = 8</t>
   </si>
@@ -28,9 +30,6 @@
   </si>
   <si>
     <t>IP = 4</t>
-  </si>
-  <si>
-    <t>Bitrate</t>
   </si>
   <si>
     <t>PSNR</t>
@@ -101,12 +100,24 @@
   <si>
     <t>IP_4_Block_16</t>
   </si>
+  <si>
+    <t>IP_10_Block_16</t>
+  </si>
+  <si>
+    <t>Execution Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block </t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +125,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -131,18 +162,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -192,24 +289,568 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Rate Distortion Plot,</a:t>
+              <a:t>Average Run Time RDO Enabled</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IP_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$26,Sheet1!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$20,Sheet1!$J$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>31.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.64250000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IP_4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$26,Sheet1!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$22,Sheet1!$J$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>31.622500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.94499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IP_10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$26,Sheet1!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$24,Sheet1!$J$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>32.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.537500000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="486181024"/>
+        <c:axId val="486172400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="486181024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Block</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486172400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486172400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486181024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rate</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> i = 16, r = 2, RDO Enabled</a:t>
+              <a:t> Distortion Plot RDO Enabled</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>i=16, r=2</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10958333333333335"/>
-          <c:y val="4.1666666666666664E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -490,11 +1131,662 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492693744"/>
-        <c:axId val="492694136"/>
+        <c:axId val="486181416"/>
+        <c:axId val="486170048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492693744"/>
+        <c:axId val="486181416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bitrate (Bits)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486170048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486170048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486181416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distortion Plot RDO Enabled</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>i=8, r=2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IP_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4263450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1254681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37.906968200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.191080400000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.649968999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.360233200000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1A8-4552-8B39-33B5511526C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IP_4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3744411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>905625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38.142766599999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.409247700000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.7368995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.532094600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1A8-4552-8B39-33B5511526C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IP_10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3651043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>807006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37.690782999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.530800699999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.500979300000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.2459758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1A8-4552-8B39-33B5511526C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="486170440"/>
+        <c:axId val="486173184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="486170440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,14 +1899,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492694136"/>
+        <c:crossAx val="486173184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492694136"/>
+        <c:axId val="486173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +2018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492693744"/>
+        <c:crossAx val="486170440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -806,7 +2099,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -841,17 +2134,25 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Rate</a:t>
+              <a:t>Bits per</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Distortion Plot i=8, r = 2, RDO Enabled</a:t>
+              <a:t> Frame RDO Enabled</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>i=8, QP=3</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -884,8 +2185,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -894,77 +2196,54 @@
             <c:v>IP_1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:f>'Block 8'!$B$61:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4263450</c:v>
+                  <c:v>124786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1254681</c:v>
+                  <c:v>124395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>202445</c:v>
+                  <c:v>123983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38717</c:v>
+                  <c:v>123966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>37.906968200000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.191080400000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.649968999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.360233200000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A1A8-4552-8B39-33B5511526C3}"/>
-            </c:ext>
-          </c:extLst>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -973,77 +2252,54 @@
             <c:v>IP_4</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:f>'Block 8'!$G$61:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3744411</c:v>
+                  <c:v>124786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>905625</c:v>
+                  <c:v>82201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154061</c:v>
+                  <c:v>80941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57363</c:v>
+                  <c:v>73658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>38.142766599999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.409247700000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.7368995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.532094600000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A1A8-4552-8B39-33B5511526C3}"/>
-            </c:ext>
-          </c:extLst>
+          </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1052,77 +2308,54 @@
             <c:v>IP_10</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$7</c:f>
+              <c:f>'Block 8'!$L$61:$L$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3651043</c:v>
+                  <c:v>124786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>807006</c:v>
+                  <c:v>82201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138406</c:v>
+                  <c:v>80941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62427</c:v>
+                  <c:v>73658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77490</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$4:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>37.690782999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.530800699999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.500979300000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.2459758</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A1A8-4552-8B39-33B5511526C3}"/>
-            </c:ext>
-          </c:extLst>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1132,30 +2365,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492703152"/>
-        <c:axId val="492698056"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="492703152"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="486173968"/>
+        <c:axId val="486174360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="486173968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1177,12 +2398,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Bitrate (Bits)</a:t>
+                  <a:t>Frame</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1212,7 +2432,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1221,8 +2440,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1249,12 +2468,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492698056"/>
+        <c:crossAx val="486174360"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="492698056"/>
+        <c:axId val="486174360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,12 +2517,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>PSNR (dB)</a:t>
+                  <a:t>Bits</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1336,11 +2557,452 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486173968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bits</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per Frame RDO Enabled</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>i=16, QP=4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IP_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block 16'!$B$61:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>76440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75085</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IP_4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block 16'!$G$61:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>76440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75707</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>IP_10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Block 16'!$L$61:$L$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>76440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="486175144"/>
+        <c:axId val="486192000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="486175144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1367,9 +3029,123 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492703152"/>
+        <c:crossAx val="486192000"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486192000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486175144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1381,7 +3157,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1528,6 +3303,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2560,30 +4455,1614 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8650574" cy="6277131"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.23637</cdr:x>
+      <cdr:y>0.28258</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.76489</cdr:x>
+      <cdr:y>0.71959</cdr:y>
+    </cdr:to>
+    <cdr:graphicFrame macro="">
+      <cdr:nvGraphicFramePr>
+        <cdr:cNvPr id="2" name="Chart 1"/>
+        <cdr:cNvGraphicFramePr/>
+      </cdr:nvGraphicFramePr>
+      <cdr:xfrm>
+        <a:off xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" x="0" y="0"/>
+        <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" cx="0" cy="0"/>
+      </cdr:xfrm>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </cdr:graphicFrame>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>173354</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>83819</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2598,28 +6077,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>430306</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2628,7 +6106,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2924,62 +6437,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4263450</v>
       </c>
@@ -2998,20 +6508,8 @@
       <c r="F4">
         <v>37.690782999999996</v>
       </c>
-      <c r="H4">
-        <v>2509724</v>
-      </c>
-      <c r="I4">
-        <v>377431</v>
-      </c>
-      <c r="J4">
-        <v>39569</v>
-      </c>
-      <c r="K4">
-        <v>17270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1254681</v>
       </c>
@@ -3030,11 +6528,8 @@
       <c r="F5">
         <v>31.530800699999997</v>
       </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>202445</v>
       </c>
@@ -3054,7 +6549,7 @@
         <v>26.500979300000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>38717</v>
       </c>
@@ -3073,69 +6568,52 @@
       <c r="F7">
         <v>18.2459758</v>
       </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H8">
-        <v>32.9477172</v>
-      </c>
-      <c r="I8">
-        <v>29.6243075</v>
-      </c>
-      <c r="J8">
-        <v>24.805024800000002</v>
-      </c>
-      <c r="K8">
-        <v>16.455668200000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3139027</v>
       </c>
@@ -3155,7 +6633,7 @@
         <v>32.9477172</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>754154</v>
       </c>
@@ -3175,7 +6653,7 @@
         <v>29.6243075</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>84372</v>
       </c>
@@ -3195,7 +6673,7 @@
         <v>24.805024800000002</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9388</v>
       </c>
@@ -3215,16 +6693,265 @@
         <v>16.455668200000002</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30.61</v>
+      </c>
+      <c r="B20">
+        <v>30.55</v>
+      </c>
+      <c r="C20">
+        <v>31.65</v>
+      </c>
+      <c r="D20">
+        <v>31.23</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(A20:D20)</f>
+        <v>31.01</v>
+      </c>
+      <c r="F20">
+        <v>103.02</v>
+      </c>
+      <c r="G20">
+        <v>97.72</v>
+      </c>
+      <c r="H20">
+        <v>103.22</v>
+      </c>
+      <c r="I20">
+        <v>106.61</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGE(F20:I20)</f>
+        <v>102.64250000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30.96</v>
+      </c>
+      <c r="B22">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="C22">
+        <v>29.26</v>
+      </c>
+      <c r="D22">
+        <v>33.14</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(A22:D22)</f>
+        <v>31.622500000000002</v>
+      </c>
+      <c r="F22">
+        <v>107.77</v>
+      </c>
+      <c r="G22">
+        <v>105.42</v>
+      </c>
+      <c r="H22">
+        <v>100.02</v>
+      </c>
+      <c r="I22">
+        <v>106.57</v>
+      </c>
+      <c r="J22">
+        <f>AVERAGE(F22:I22)</f>
+        <v>104.94499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="B24">
+        <v>29.32</v>
+      </c>
+      <c r="C24">
+        <v>31.84</v>
+      </c>
+      <c r="D24">
+        <v>30.98</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE(A24:D24)</f>
+        <v>32.29</v>
+      </c>
+      <c r="F24">
+        <v>106.15</v>
+      </c>
+      <c r="G24">
+        <v>98.56</v>
+      </c>
+      <c r="H24">
+        <v>95.27</v>
+      </c>
+      <c r="I24">
+        <v>90.17</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(F24:I24)</f>
+        <v>97.537500000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(A20,B20,C20,D20,D22,C22,B22,A22,A24,B24,C24,D24)</f>
+        <v>31.640833333333333</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(F20,G20,H20,I20,F22,G22,H22,I22,F24,G24,H24,I24)</f>
+        <v>101.70833333333333</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="11">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3234,72 +6961,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3683,52 +7434,65 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="N16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -4112,52 +7876,65 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" t="s">
-        <v>5</v>
-      </c>
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="N29" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -4541,52 +8318,65 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" t="s">
-        <v>17</v>
-      </c>
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="N42" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -4628,12 +8418,26 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -4660,14 +8464,44 @@
       <c r="I46">
         <v>16937</v>
       </c>
+      <c r="K46">
+        <f>SUM(K4:K13)</f>
+        <v>3574703</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ref="L46:N46" si="0">SUM(L4:L13)</f>
+        <v>720430</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>92044</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>16685</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s">
-        <v>19</v>
-      </c>
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -4694,16 +8528,46 @@
       <c r="I48">
         <v>40426</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <f>SUM(K17:K26)</f>
+        <v>76340</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ref="L48:N48" si="1">SUM(L17:L26)</f>
+        <v>86576</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>46362</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4263450</v>
       </c>
@@ -4728,16 +8592,46 @@
       <c r="I50">
         <v>57363</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <f>SUM(K46,K48)</f>
+        <v>3651043</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ref="L50:N50" si="2">SUM(L46,L48)</f>
+        <v>807006</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>138406</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>62427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>37.906968200000001</v>
       </c>
@@ -4762,65 +8656,744 @@
       <c r="I52">
         <v>18.532094600000001</v>
       </c>
+      <c r="K52">
+        <f>AVERAGE(K30:K39)</f>
+        <v>37.690782999999996</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ref="L52:N52" si="3">AVERAGE(L30:L39)</f>
+        <v>31.530800699999997</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>26.500979300000001</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>18.2459758</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4263450</v>
+      </c>
+      <c r="B55">
+        <v>37.906968200000001</v>
+      </c>
+      <c r="F55">
+        <v>3744411</v>
+      </c>
+      <c r="G55">
+        <v>38.142766599999995</v>
+      </c>
+      <c r="K55">
+        <v>3651043</v>
+      </c>
+      <c r="L55">
+        <v>37.690782999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1254681</v>
+      </c>
+      <c r="B56">
+        <v>31.191080400000004</v>
+      </c>
+      <c r="F56">
+        <v>905625</v>
+      </c>
+      <c r="G56">
+        <v>31.409247700000002</v>
+      </c>
+      <c r="K56">
+        <v>807006</v>
+      </c>
+      <c r="L56">
+        <v>31.530800699999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>202445</v>
+      </c>
+      <c r="B57">
+        <v>26.649968999999999</v>
+      </c>
+      <c r="F57">
+        <v>154061</v>
+      </c>
+      <c r="G57">
+        <v>26.7368995</v>
+      </c>
+      <c r="K57">
+        <v>138406</v>
+      </c>
+      <c r="L57">
+        <v>26.500979300000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>38717</v>
+      </c>
+      <c r="B58">
+        <v>18.360233200000003</v>
+      </c>
+      <c r="F58">
+        <v>57363</v>
+      </c>
+      <c r="G58">
+        <v>18.532094600000001</v>
+      </c>
+      <c r="K58">
+        <v>62427</v>
+      </c>
+      <c r="L58">
+        <v>18.2459758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>SUM(A4, A17)</f>
+        <v>426632</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" ref="B61:D61" si="4">SUM(B4, B17)</f>
+        <v>124786</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>20362</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>3910</v>
+      </c>
+      <c r="F61">
+        <f>SUM(F4,F17)</f>
+        <v>426632</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" ref="G61:I61" si="5">SUM(G4,G17)</f>
+        <v>124786</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>20362</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="5"/>
+        <v>3910</v>
+      </c>
+      <c r="K61">
+        <f>SUM(K4,K17)</f>
+        <v>426632</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" ref="L61:N61" si="6">SUM(L4,L17)</f>
+        <v>124786</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="6"/>
+        <v>20362</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="6"/>
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" ref="A62:D70" si="7">SUM(A5, A18)</f>
+        <v>421995</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="7"/>
+        <v>124395</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="7"/>
+        <v>19946</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="7"/>
+        <v>3875</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:I70" si="8">SUM(F5,F18)</f>
+        <v>365478</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="8"/>
+        <v>82201</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="8"/>
+        <v>13859</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="8"/>
+        <v>6620</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ref="K62:N70" si="9">SUM(K5,K18)</f>
+        <v>365478</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="9"/>
+        <v>82201</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="9"/>
+        <v>13859</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="9"/>
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="7"/>
+        <v>421226</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="7"/>
+        <v>123983</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="7"/>
+        <v>20205</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="7"/>
+        <v>3855</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>362963</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="8"/>
+        <v>80941</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="8"/>
+        <v>13519</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="8"/>
+        <v>6506</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="9"/>
+        <v>362963</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="9"/>
+        <v>80941</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="9"/>
+        <v>13519</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="9"/>
+        <v>6506</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="7"/>
+        <v>424074</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="7"/>
+        <v>123966</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="7"/>
+        <v>20305</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="7"/>
+        <v>3857</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="8"/>
+        <v>349250</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="8"/>
+        <v>73658</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="8"/>
+        <v>13163</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="8"/>
+        <v>6490</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="9"/>
+        <v>349250</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="9"/>
+        <v>73658</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="9"/>
+        <v>13163</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="9"/>
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="7"/>
+        <v>424177</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="7"/>
+        <v>125948</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="7"/>
+        <v>19880</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="7"/>
+        <v>3907</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="8"/>
+        <v>424177</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="8"/>
+        <v>125948</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="8"/>
+        <v>19880</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="8"/>
+        <v>3907</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="9"/>
+        <v>369145</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="9"/>
+        <v>80182</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="9"/>
+        <v>13877</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="9"/>
+        <v>6491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="7"/>
+        <v>426684</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="7"/>
+        <v>125083</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="7"/>
+        <v>20214</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="7"/>
+        <v>3871</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>353362</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="8"/>
+        <v>78933</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="8"/>
+        <v>12764</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="8"/>
+        <v>6594</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="9"/>
+        <v>365285</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="9"/>
+        <v>79768</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="9"/>
+        <v>11975</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="9"/>
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="7"/>
+        <v>428197</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="7"/>
+        <v>125862</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="7"/>
+        <v>20235</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="7"/>
+        <v>3871</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="8"/>
+        <v>307827</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="8"/>
+        <v>59021</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="8"/>
+        <v>12923</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="8"/>
+        <v>6448</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="9"/>
+        <v>312214</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="9"/>
+        <v>61126</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="9"/>
+        <v>10906</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="9"/>
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="7"/>
+        <v>428083</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="7"/>
+        <v>126215</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="7"/>
+        <v>20508</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="7"/>
+        <v>3843</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>373340</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="8"/>
+        <v>77752</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="8"/>
+        <v>14023</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="8"/>
+        <v>6458</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="9"/>
+        <v>376540</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="9"/>
+        <v>77490</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="9"/>
+        <v>12128</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="9"/>
+        <v>6484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="7"/>
+        <v>429173</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="7"/>
+        <v>127306</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="7"/>
+        <v>20194</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="7"/>
+        <v>3843</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>429173</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="8"/>
+        <v>127306</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="8"/>
+        <v>20194</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="8"/>
+        <v>3843</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="9"/>
+        <v>356463</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="9"/>
+        <v>71524</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="9"/>
+        <v>13461</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="9"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="7"/>
+        <v>433209</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="7"/>
+        <v>127137</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="7"/>
+        <v>20596</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="7"/>
+        <v>3885</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>352209</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="8"/>
+        <v>75079</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="8"/>
+        <v>13374</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="8"/>
+        <v>6587</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="9"/>
+        <v>367073</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="9"/>
+        <v>75330</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="9"/>
+        <v>15156</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="9"/>
+        <v>6490</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>313004</v>
       </c>
@@ -4845,8 +9418,20 @@
       <c r="I4">
         <v>450</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>313004</v>
+      </c>
+      <c r="L4">
+        <v>75688</v>
+      </c>
+      <c r="M4">
+        <v>7584</v>
+      </c>
+      <c r="N4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>308062</v>
       </c>
@@ -4871,8 +9456,20 @@
       <c r="I5">
         <v>396</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>251222</v>
+      </c>
+      <c r="L5">
+        <v>36648</v>
+      </c>
+      <c r="M5">
+        <v>2545</v>
+      </c>
+      <c r="N5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>307416</v>
       </c>
@@ -4897,8 +9494,20 @@
       <c r="I6">
         <v>396</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>247312</v>
+      </c>
+      <c r="L6">
+        <v>34404</v>
+      </c>
+      <c r="M6">
+        <v>2687</v>
+      </c>
+      <c r="N6">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>311842</v>
       </c>
@@ -4923,8 +9532,20 @@
       <c r="I7">
         <v>414</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>230013</v>
+      </c>
+      <c r="L7">
+        <v>29238</v>
+      </c>
+      <c r="M7">
+        <v>2124</v>
+      </c>
+      <c r="N7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>310838</v>
       </c>
@@ -4949,8 +9570,20 @@
       <c r="I8">
         <v>456</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>247015</v>
+      </c>
+      <c r="L8">
+        <v>30853</v>
+      </c>
+      <c r="M8">
+        <v>2291</v>
+      </c>
+      <c r="N8">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>311959</v>
       </c>
@@ -4975,8 +9608,20 @@
       <c r="I9">
         <v>396</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>249701</v>
+      </c>
+      <c r="L9">
+        <v>33262</v>
+      </c>
+      <c r="M9">
+        <v>2252</v>
+      </c>
+      <c r="N9">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>313730</v>
       </c>
@@ -5001,8 +9646,20 @@
       <c r="I10">
         <v>396</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>200581</v>
+      </c>
+      <c r="L10">
+        <v>24249</v>
+      </c>
+      <c r="M10">
+        <v>2054</v>
+      </c>
+      <c r="N10">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>317370</v>
       </c>
@@ -5027,8 +9684,20 @@
       <c r="I11">
         <v>402</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>256813</v>
+      </c>
+      <c r="L11">
+        <v>29860</v>
+      </c>
+      <c r="M11">
+        <v>1858</v>
+      </c>
+      <c r="N11">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>317180</v>
       </c>
@@ -5053,8 +9722,20 @@
       <c r="I12">
         <v>426</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>240482</v>
+      </c>
+      <c r="L12">
+        <v>28862</v>
+      </c>
+      <c r="M12">
+        <v>2044</v>
+      </c>
+      <c r="N12">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>320120</v>
       </c>
@@ -5079,42 +9760,82 @@
       <c r="I13">
         <v>396</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="K13">
+        <v>255347</v>
+      </c>
+      <c r="L13">
+        <v>33021</v>
+      </c>
+      <c r="M13">
+        <v>2224</v>
+      </c>
+      <c r="N13">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>730</v>
       </c>
@@ -5139,8 +9860,20 @@
       <c r="I17">
         <v>504</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>730</v>
+      </c>
+      <c r="L17">
+        <v>752</v>
+      </c>
+      <c r="M17">
+        <v>766</v>
+      </c>
+      <c r="N17">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>758</v>
       </c>
@@ -5165,8 +9898,20 @@
       <c r="I18">
         <v>1476</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1968</v>
+      </c>
+      <c r="L18">
+        <v>2448</v>
+      </c>
+      <c r="M18">
+        <v>1244</v>
+      </c>
+      <c r="N18">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>756</v>
       </c>
@@ -5191,8 +9936,20 @@
       <c r="I19">
         <v>1508</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>2050</v>
+      </c>
+      <c r="L19">
+        <v>2402</v>
+      </c>
+      <c r="M19">
+        <v>1240</v>
+      </c>
+      <c r="N19">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>744</v>
       </c>
@@ -5217,8 +9974,20 @@
       <c r="I20">
         <v>1508</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1970</v>
+      </c>
+      <c r="L20">
+        <v>2220</v>
+      </c>
+      <c r="M20">
+        <v>1234</v>
+      </c>
+      <c r="N20">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>756</v>
       </c>
@@ -5243,8 +10012,20 @@
       <c r="I21">
         <v>512</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>2006</v>
+      </c>
+      <c r="L21">
+        <v>2318</v>
+      </c>
+      <c r="M21">
+        <v>1236</v>
+      </c>
+      <c r="N21">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>752</v>
       </c>
@@ -5269,8 +10050,20 @@
       <c r="I22">
         <v>1476</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>1968</v>
+      </c>
+      <c r="L22">
+        <v>2324</v>
+      </c>
+      <c r="M22">
+        <v>1238</v>
+      </c>
+      <c r="N22">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>772</v>
       </c>
@@ -5295,8 +10088,20 @@
       <c r="I23">
         <v>1506</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>1782</v>
+      </c>
+      <c r="L23">
+        <v>2050</v>
+      </c>
+      <c r="M23">
+        <v>1234</v>
+      </c>
+      <c r="N23">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>750</v>
       </c>
@@ -5321,8 +10126,20 @@
       <c r="I24">
         <v>1504</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>1976</v>
+      </c>
+      <c r="L24">
+        <v>2338</v>
+      </c>
+      <c r="M24">
+        <v>1236</v>
+      </c>
+      <c r="N24">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>762</v>
       </c>
@@ -5347,8 +10164,20 @@
       <c r="I25">
         <v>480</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>1846</v>
+      </c>
+      <c r="L25">
+        <v>2152</v>
+      </c>
+      <c r="M25">
+        <v>1236</v>
+      </c>
+      <c r="N25">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>726</v>
       </c>
@@ -5373,42 +10202,82 @@
       <c r="I26">
         <v>1462</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="K26">
+        <v>1938</v>
+      </c>
+      <c r="L26">
+        <v>2342</v>
+      </c>
+      <c r="M26">
+        <v>1242</v>
+      </c>
+      <c r="N26">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33.708862000000003</v>
       </c>
@@ -5433,8 +10302,20 @@
       <c r="I30">
         <v>16.780684999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>33.708862000000003</v>
+      </c>
+      <c r="L30">
+        <v>29.964456999999999</v>
+      </c>
+      <c r="M30">
+        <v>24.756713999999999</v>
+      </c>
+      <c r="N30">
+        <v>16.780684999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34.120361000000003</v>
       </c>
@@ -5459,8 +10340,20 @@
       <c r="I31">
         <v>16.75667</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>33.058337999999999</v>
+      </c>
+      <c r="L31">
+        <v>30.014275000000001</v>
+      </c>
+      <c r="M31">
+        <v>24.992211999999999</v>
+      </c>
+      <c r="N31">
+        <v>16.75667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33.639225000000003</v>
       </c>
@@ -5485,8 +10378,20 @@
       <c r="I32">
         <v>16.714199000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>33.038017000000004</v>
+      </c>
+      <c r="L32">
+        <v>29.728591999999999</v>
+      </c>
+      <c r="M32">
+        <v>25.084233999999999</v>
+      </c>
+      <c r="N32">
+        <v>16.714199000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33.419682000000002</v>
       </c>
@@ -5511,8 +10416,20 @@
       <c r="I33">
         <v>16.712069</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>32.939011000000001</v>
+      </c>
+      <c r="L33">
+        <v>29.379180999999999</v>
+      </c>
+      <c r="M33">
+        <v>25.038882999999998</v>
+      </c>
+      <c r="N33">
+        <v>16.712069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33.338515999999998</v>
       </c>
@@ -5537,8 +10454,20 @@
       <c r="I34">
         <v>16.767727000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>32.670890999999997</v>
+      </c>
+      <c r="L34">
+        <v>29.534590000000001</v>
+      </c>
+      <c r="M34">
+        <v>25.002715999999999</v>
+      </c>
+      <c r="N34">
+        <v>16.536999000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33.522120999999999</v>
       </c>
@@ -5563,8 +10492,20 @@
       <c r="I35">
         <v>16.870446999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>32.728233000000003</v>
+      </c>
+      <c r="L35">
+        <v>29.39349</v>
+      </c>
+      <c r="M35">
+        <v>24.732071000000001</v>
+      </c>
+      <c r="N35">
+        <v>16.316706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33.602469999999997</v>
       </c>
@@ -5589,8 +10530,20 @@
       <c r="I36">
         <v>16.894970000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>32.909053999999998</v>
+      </c>
+      <c r="L36">
+        <v>29.467676000000001</v>
+      </c>
+      <c r="M36">
+        <v>24.658348</v>
+      </c>
+      <c r="N36">
+        <v>16.303715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34.025306999999998</v>
       </c>
@@ -5615,8 +10568,20 @@
       <c r="I37">
         <v>16.922035000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>32.958599</v>
+      </c>
+      <c r="L37">
+        <v>29.515101999999999</v>
+      </c>
+      <c r="M37">
+        <v>24.510826000000002</v>
+      </c>
+      <c r="N37">
+        <v>16.148363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32.572932999999999</v>
       </c>
@@ -5641,8 +10606,20 @@
       <c r="I38">
         <v>16.652951999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>32.54533</v>
+      </c>
+      <c r="L38">
+        <v>29.429565</v>
+      </c>
+      <c r="M38">
+        <v>24.561267999999998</v>
+      </c>
+      <c r="N38">
+        <v>16.102837000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33.883343000000004</v>
       </c>
@@ -5667,42 +10644,82 @@
       <c r="I39">
         <v>16.694358999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="K39">
+        <v>32.920836999999999</v>
+      </c>
+      <c r="L39">
+        <v>29.816147000000001</v>
+      </c>
+      <c r="M39">
+        <v>24.712976000000001</v>
+      </c>
+      <c r="N39">
+        <v>16.184439000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>103.02</v>
       </c>
@@ -5727,16 +10744,41 @@
       <c r="I43">
         <v>106.57</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>106.15</v>
+      </c>
+      <c r="L43">
+        <v>98.56</v>
+      </c>
+      <c r="M43">
+        <v>95.27</v>
+      </c>
+      <c r="N43">
+        <v>90.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3131521</v>
       </c>
@@ -5761,16 +10803,40 @@
       <c r="I46">
         <v>4128</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>2491490</v>
+      </c>
+      <c r="L46">
+        <v>356085</v>
+      </c>
+      <c r="M46">
+        <v>27663</v>
+      </c>
+      <c r="N46">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7506</v>
       </c>
@@ -5795,16 +10861,40 @@
       <c r="I48">
         <v>11936</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>18234</v>
+      </c>
+      <c r="L48">
+        <v>21346</v>
+      </c>
+      <c r="M48">
+        <v>11906</v>
+      </c>
+      <c r="N48">
+        <v>13154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3139027</v>
       </c>
@@ -5829,16 +10919,40 @@
       <c r="I50">
         <v>16064</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>2509724</v>
+      </c>
+      <c r="L50">
+        <v>377431</v>
+      </c>
+      <c r="M50">
+        <v>39569</v>
+      </c>
+      <c r="N50">
+        <v>17270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>33.583281999999997</v>
       </c>
@@ -5863,8 +10977,640 @@
       <c r="I52">
         <v>16.776611299999999</v>
       </c>
+      <c r="K52">
+        <v>32.9477172</v>
+      </c>
+      <c r="L52">
+        <v>29.6243075</v>
+      </c>
+      <c r="M52">
+        <v>24.805024800000002</v>
+      </c>
+      <c r="N52">
+        <v>16.455668200000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3139027</v>
+      </c>
+      <c r="B55">
+        <v>33.583281999999997</v>
+      </c>
+      <c r="F55">
+        <v>2622702</v>
+      </c>
+      <c r="G55">
+        <v>33.026169899999999</v>
+      </c>
+      <c r="K55">
+        <v>2509724</v>
+      </c>
+      <c r="L55">
+        <v>32.9477172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>754154</v>
+      </c>
+      <c r="B56">
+        <v>29.965587899999999</v>
+      </c>
+      <c r="F56">
+        <v>461488</v>
+      </c>
+      <c r="G56">
+        <v>29.9762126</v>
+      </c>
+      <c r="K56">
+        <v>377431</v>
+      </c>
+      <c r="L56">
+        <v>29.6243075</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>84372</v>
+      </c>
+      <c r="B57">
+        <v>24.600240100000001</v>
+      </c>
+      <c r="F57">
+        <v>49930</v>
+      </c>
+      <c r="G57">
+        <v>24.814711200000001</v>
+      </c>
+      <c r="K57">
+        <v>39569</v>
+      </c>
+      <c r="L57">
+        <v>24.805024800000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9388</v>
+      </c>
+      <c r="B58">
+        <v>16.677157999999999</v>
+      </c>
+      <c r="F58">
+        <v>16064</v>
+      </c>
+      <c r="G58">
+        <v>16.776611299999999</v>
+      </c>
+      <c r="K58">
+        <v>17270</v>
+      </c>
+      <c r="L58">
+        <v>16.455668200000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>SUM(A4, A17)</f>
+        <v>313734</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" ref="B61:D61" si="0">SUM(B4, B17)</f>
+        <v>76440</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>8350</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>954</v>
+      </c>
+      <c r="F61">
+        <f>SUM(F4,F17)</f>
+        <v>313734</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" ref="G61:I61" si="1">SUM(G4,G17)</f>
+        <v>76440</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>8350</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>954</v>
+      </c>
+      <c r="K61">
+        <f>SUM(K4,K17)</f>
+        <v>313734</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" ref="L61:N61" si="2">SUM(L4,L17)</f>
+        <v>76440</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>8350</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" ref="A62:D70" si="3">SUM(A5, A18)</f>
+        <v>308820</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="3"/>
+        <v>74355</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>8566</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>938</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:I70" si="4">SUM(F5,F18)</f>
+        <v>253190</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="4"/>
+        <v>39096</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>3789</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>1872</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ref="K62:N70" si="5">SUM(K5,K18)</f>
+        <v>253190</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="5"/>
+        <v>39096</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>3789</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="5"/>
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>308172</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="3"/>
+        <v>74438</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>8552</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>938</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>249362</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="4"/>
+        <v>36806</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>3927</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>1904</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>249362</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="5"/>
+        <v>36806</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>3927</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="5"/>
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>312586</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="3"/>
+        <v>75148</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>8104</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>952</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>231983</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="4"/>
+        <v>31458</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>3358</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>1922</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>231983</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="5"/>
+        <v>31458</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>3358</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="5"/>
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>311594</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="3"/>
+        <v>74506</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>8328</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>968</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>311594</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="4"/>
+        <v>74506</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>8328</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>968</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>249021</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="5"/>
+        <v>33171</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>3527</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="5"/>
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>312711</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="3"/>
+        <v>75051</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>8625</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>944</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>242194</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="4"/>
+        <v>35023</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>3814</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>1872</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>251669</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="5"/>
+        <v>35586</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>3490</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="5"/>
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>314502</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="3"/>
+        <v>75085</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>8384</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>934</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>201251</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="4"/>
+        <v>25170</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>3009</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>1902</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>202363</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="5"/>
+        <v>26299</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="5"/>
+        <v>3288</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="5"/>
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>318120</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="3"/>
+        <v>76829</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>8422</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>934</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>256770</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="4"/>
+        <v>32891</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>3379</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>1906</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>258789</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="5"/>
+        <v>32198</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>3094</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="5"/>
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>317942</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="3"/>
+        <v>75707</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>8498</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>906</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>317942</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="4"/>
+        <v>75707</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>8498</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>906</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>242328</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="5"/>
+        <v>31014</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="5"/>
+        <v>3280</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="5"/>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>320846</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="3"/>
+        <v>76595</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>8543</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>920</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>244682</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="4"/>
+        <v>34391</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>3478</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>1858</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>257285</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="5"/>
+        <v>35363</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="5"/>
+        <v>3466</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="5"/>
+        <v>1692</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>